--- a/11_付费课程/爱发卡.xlsx
+++ b/11_付费课程/爱发卡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1589A-D6EE-4A50-83D5-0FE9F00638D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66554973-B01E-4DF1-9A0A-5BC1C705263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{056F0F60-8C4A-4C7B-B5DF-33BD2BE4F721}"/>
+    <workbookView xWindow="2775" yWindow="1815" windowWidth="14670" windowHeight="10050" xr2:uid="{056F0F60-8C4A-4C7B-B5DF-33BD2BE4F721}"/>
   </bookViews>
   <sheets>
     <sheet name="爱发卡" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>商品链接（短链接）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,67 @@
   </si>
   <si>
     <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF]使用 UrBackup 备份和恢复 PostgreSQL.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PDF]使用 UrBackup 备份和恢复 MySQL 和 MariaDB.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PDF]使用 UrBackup 备份和恢复 Microsoft SQL Server (MSSQL).pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dwz.cn/oEYO2zpE</t>
+  </si>
+  <si>
+    <t>https://pr.kuaifaka.net/item/Yhbleuv</t>
+  </si>
+  <si>
+    <t>https://dwz.cn/zfyKCxuW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pr.kuaifaka.net/item/F9Uthr2</t>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dwz.cn/y5H4iHGe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pr.kuaifaka.net/item/adjkiVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC26D8D-A48B-4F02-AECE-1F4E8B422803}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1130,6 +1191,93 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7">
+        <v>69</v>
+      </c>
+      <c r="G15" s="7">
+        <v>68</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>55</v>
